--- a/document/analisis_productividad.xlsx
+++ b/document/analisis_productividad.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="merma_productividad" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="merma_productividad_valor" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="merma_productividad_porcentaje" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="analisis_2023" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2528,7 +2529,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Enseñanza pública</t>
@@ -2662,12 +2667,16 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Enseñanza privada</t>
@@ -2801,7 +2810,7 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2958,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud públicos</t>
@@ -3083,12 +3096,16 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud privados</t>
@@ -3222,7 +3239,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
@@ -3510,6 +3527,759 @@
         <is>
           <t>Alta</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>vab_pb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>puestos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>horas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>productividad_puestos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>productividad_horas</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>productividad_horas_distraccion</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>merma_productividad</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>merma_productividad_valor</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>merma_productividad_porcentaje</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>%_vab_pb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agricultura, ganadería, caza y silvicultura </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10916045.1633076</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1382.317082132298</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2130953.65384646</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7896.918373076177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.122610312806982</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.89594613967393</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2266641731330523</v>
+      </c>
+      <c r="J2" t="n">
+        <v>483010.8479339645</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04424778761061947</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0677853309136114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pesca</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>433991.2341017729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.49429189624457</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71369.05615892611</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18472.19895021156</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.080944003733945</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.811875684984654</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2690683187492908</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19203.15195140597</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.04424778761061966</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.002694953985357225</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Explotación de minas y canteras</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7559342.662578834</v>
+      </c>
+      <c r="D4" t="n">
+        <v>117.1928958082986</v>
+      </c>
+      <c r="E4" t="n">
+        <v>262908.3840715867</v>
+      </c>
+      <c r="F4" t="n">
+        <v>64503.42071028118</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.75276377842907</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27.48051759354282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.272246184886242</v>
+      </c>
+      <c r="J4" t="n">
+        <v>334484.188609683</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04424778761061948</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04694122607651651</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Industria manufacturera</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31232507.92628674</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2602.914361060377</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4562856.868918967</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11999.05321263171</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.844945792412366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.16045121317113</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6844945792412362</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3123250.792628672</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09999999999999995</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1939444050819452</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electricidad, gas y agua</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1695695.080413137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>137.732774110248</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216860.2893392937</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12311.4857111338</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.819297325385833</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.037367592847249</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7819297325385834</v>
+      </c>
+      <c r="J6" t="n">
+        <v>169569.5080413137</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01052975234480976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7471620.725783991</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1895.870116312798</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3183411.818434721</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3940.998205254296</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.347048120672548</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.112343308605293</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2347048120672546</v>
+      </c>
+      <c r="J7" t="n">
+        <v>747162.0725783983</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09999999999999989</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04639649944474984</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comercio mayorista, minorista y reparaciones</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32257028.50214365</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4006.14226782375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7414443.520836578</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8051.892904858463</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.350566352214125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.600468705280656</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7500976469334693</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5561556.638300624</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1724137931034481</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.20030636724162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hoteles y restaurantes</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3935836.302244329</v>
+      </c>
+      <c r="D9" t="n">
+        <v>739.8144249174367</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1196565.548309739</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5320.031848099702</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.289277639494191</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.722160805098641</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5671168343955495</v>
+      </c>
+      <c r="J9" t="n">
+        <v>678592.4659041938</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1724137931034481</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02444035016144965</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Transporte, almacenamiento y comunicaciones</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8358358.692855136</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1267.18625926198</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2364763.00172418</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6595.998521735169</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.534543921213646</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.181089529092282</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3534543921213644</v>
+      </c>
+      <c r="J10" t="n">
+        <v>835835.8692855132</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.09999999999999995</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.05190287337709878</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Intermediación financiera</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3078861.836015438</v>
+      </c>
+      <c r="D11" t="n">
+        <v>308.7031552291337</v>
+      </c>
+      <c r="E11" t="n">
+        <v>486475.8986875927</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9973.535365163874</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.328909292981512</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.237718035570907</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.091191257410605</v>
+      </c>
+      <c r="J11" t="n">
+        <v>530838.2475888684</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1724137931034482</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01911879854556761</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17481855.73458763</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1593.219110753266</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2502467.987646238</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10972.66259022107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.985845901281898</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.781389711405709</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.204456189876189</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3014113.057687521</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1724137931034482</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1085570239244022</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Administración pública y defensa; planes de seguridad social de afiliación obligatoria</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13350041.21943445</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1712.520201667268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2932585.293284763</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7795.552546730351</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.552311317254538</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.767430055658928</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7848812615956096</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2301731.244730075</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1724137931034482</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.08289970847789323</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Enseñanza</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9638950.573801296</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2284.992704484993</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1916963.377148926</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4218.37258162003</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.028239291737111</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.525415362563399</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5028239291737115</v>
+      </c>
+      <c r="J14" t="n">
+        <v>963895.0573801305</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0598549607051176</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Servicios sociales y de salud</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8417847.471781597</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1484.970061073428</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2115994.09299172</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5668.698442106404</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.978199891796454</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.580379902616809</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3978199891796455</v>
+      </c>
+      <c r="J15" t="n">
+        <v>841784.7471781598</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.05227228065829356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Otras actividades de servicios comunitarias, sociales y personales</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4179477.617290698</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1289.91671970361</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1808615.67191705</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3240.114306178646</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.31087106132429</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.912445016268378</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3984260450559118</v>
+      </c>
+      <c r="J16" t="n">
+        <v>720599.5891880509</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1724137931034481</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.02595328886017902</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hogares privados con servicio doméstico</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1030997.227277033</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1644.753900153644</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1512235.693622528</v>
+      </c>
+      <c r="F17" t="n">
+        <v>626.8398130448102</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6817701973475453</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5642236115979685</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1175465857495768</v>
+      </c>
+      <c r="J17" t="n">
+        <v>177758.1426339711</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.006402180201388398</v>
       </c>
     </row>
   </sheetData>
@@ -5548,7 +6318,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Enseñanza pública</t>
@@ -5682,7 +6456,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Enseñanza privada</t>
@@ -5954,7 +6732,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud públicos</t>
@@ -6088,7 +6870,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud privados</t>
@@ -8603,7 +9389,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Enseñanza pública</t>
@@ -8737,12 +9527,16 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Enseñanza privada</t>
@@ -8876,7 +9670,7 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9818,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud públicos</t>
@@ -9158,12 +9956,16 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud privados</t>
@@ -9297,7 +10099,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
@@ -11623,7 +12425,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Enseñanza pública</t>
@@ -11757,7 +12563,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Enseñanza privada</t>
@@ -12029,7 +12839,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud públicos</t>
@@ -12163,7 +12977,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud privados</t>
@@ -14608,7 +15426,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Enseñanza pública</t>
@@ -14742,7 +15564,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Enseñanza privada</t>
@@ -15014,7 +15840,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud públicos</t>
@@ -15148,7 +15978,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud privados</t>
@@ -17593,271 +18427,279 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Enseñanza pública</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.282401937315202</v>
+        <v>0.2541617435836818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3012673336707697</v>
+        <v>0.2711406003036927</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3160974635849919</v>
+        <v>0.2844877172264926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3411984649225949</v>
+        <v>0.3070786184303354</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3108318008967578</v>
+        <v>0.279748620807082</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3578815489989633</v>
+        <v>0.322093394099067</v>
       </c>
       <c r="I15" t="n">
-        <v>0.383950578588521</v>
+        <v>0.3455555207296689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3869797736559051</v>
+        <v>0.3482817962903146</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4376216461113414</v>
+        <v>0.3938594815002073</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3918014137934028</v>
+        <v>0.3526212724140624</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4481338647526823</v>
+        <v>0.4033204782774141</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4858952140801616</v>
+        <v>0.4373056926721455</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4667058844059157</v>
+        <v>0.4200352959653241</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5891758743090603</v>
+        <v>0.5302582868781541</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4982293336449619</v>
+        <v>0.4484064002804656</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6112560233013734</v>
+        <v>0.5501304209712361</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6976177391107259</v>
+        <v>0.6278559651996531</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6984022078095505</v>
+        <v>0.6285619870285954</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8146304531319665</v>
+        <v>0.7331674078187697</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7073995816968788</v>
+        <v>0.636659623527191</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8873700932077757</v>
+        <v>0.7986330838869979</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9555136550472699</v>
+        <v>0.8599622895425429</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8647582488082334</v>
+        <v>0.7782824239274101</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.022237367958062</v>
+        <v>0.9200136311622555</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9325974646450768</v>
+        <v>0.8393377181805691</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.080330389444152</v>
+        <v>0.9722973504997363</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.235759769923482</v>
+        <v>1.112183792931134</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.299741931475369</v>
+        <v>1.169767738327832</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.65697718550578</v>
+        <v>1.491279466955202</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.320261145331528</v>
+        <v>1.188235030798375</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.726518789440892</v>
+        <v>1.553866910496802</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.128838121557938</v>
+        <v>1.915954309402144</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.315405133187161</v>
+        <v>2.083864619868446</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.306896301315855</v>
+        <v>2.976206671184269</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.361094436226143</v>
+        <v>2.124984992603529</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.589460402690329</v>
+        <v>3.230514362421295</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.851105926922203</v>
+        <v>4.365995334229981</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.767680216499229</v>
+        <v>5.190912194849306</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.049540266399605</v>
+        <v>7.244586239759643</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.571859746589706</v>
+        <v>5.014673771930735</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10.39612233819927</v>
+        <v>9.356510104379343</v>
       </c>
       <c r="AR15" t="n">
-        <v>13.9521350166495</v>
+        <v>12.55692151498455</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Enseñanza privada</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1519984036570265</v>
+        <v>0.1367985632913239</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1580989511518037</v>
+        <v>0.1422890560366233</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1702582464965879</v>
+        <v>0.1532324218469291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1959982816911991</v>
+        <v>0.1763984535220793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1696564951254732</v>
+        <v>0.1526908456129258</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1998129370239504</v>
+        <v>0.1798316433215553</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2163892429871429</v>
+        <v>0.1947503186884285</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2193609492405695</v>
+        <v>0.1974248543165125</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2391381763033322</v>
+        <v>0.2152243586729989</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2196310447141533</v>
+        <v>0.197667940242738</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3141263438661897</v>
+        <v>0.2827137094795708</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3548560808098623</v>
+        <v>0.319370472728876</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3216414141985448</v>
+        <v>0.2894772727786902</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3776726238503018</v>
+        <v>0.3399053614652716</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3433908831587093</v>
+        <v>0.3090517948428384</v>
       </c>
       <c r="R16" t="n">
-        <v>0.425001708198993</v>
+        <v>0.3825015373790937</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5354947084665773</v>
+        <v>0.4819452376199195</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4628631569801932</v>
+        <v>0.4165768412821739</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5169993737303639</v>
+        <v>0.4652994363573275</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4864253365038692</v>
+        <v>0.4377828028534823</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6467582561328638</v>
+        <v>0.5820824305195774</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8654506859911552</v>
+        <v>0.7789056173920397</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7149204459972179</v>
+        <v>0.6434284013974961</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7402757173696002</v>
+        <v>0.6662481456326402</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7368770776748543</v>
+        <v>0.663189369907369</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.8164793637201572</v>
+        <v>0.7348314273481413</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.9643833175686173</v>
+        <v>0.8679449858117555</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.9174348917944672</v>
+        <v>0.8256914026150205</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.08374814427763</v>
+        <v>0.9753733298498671</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.951230998890611</v>
+        <v>0.8561078990015496</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.216853115077067</v>
+        <v>1.09516780356936</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.570652846630799</v>
+        <v>1.413587561967719</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.493933641359756</v>
+        <v>1.34454027722378</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.191026163024476</v>
+        <v>1.971923546722028</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.625310531619732</v>
+        <v>1.462779478457759</v>
       </c>
       <c r="AL16" t="n">
-        <v>2.534830473385875</v>
+        <v>2.281347426047288</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.511480539342172</v>
+        <v>3.160332485407955</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.732504570525446</v>
+        <v>3.359254113472901</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.34846272588552</v>
+        <v>4.813616453296969</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.836312846456561</v>
+        <v>3.452681561810905</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7.635030840128676</v>
+        <v>6.871527756115808</v>
       </c>
       <c r="AR16" t="n">
-        <v>12.06822077714823</v>
+        <v>10.8613986994334</v>
       </c>
     </row>
     <row r="17">
@@ -17999,271 +18841,279 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud públicos</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1357463216901253</v>
+        <v>0.1221716895211127</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1474407395898855</v>
+        <v>0.132696665630897</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1546651744395355</v>
+        <v>0.1391986569955819</v>
       </c>
       <c r="F18" t="n">
-        <v>0.170183285127323</v>
+        <v>0.1531649566145907</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1522115171963057</v>
+        <v>0.1369903654766751</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1667337758093273</v>
+        <v>0.1500603982283946</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1854413393617219</v>
+        <v>0.1668972054255498</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1968065877256696</v>
+        <v>0.1771259289531027</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2198903410073381</v>
+        <v>0.1979013069066043</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1921539826586137</v>
+        <v>0.1729385843927523</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2106402484505055</v>
+        <v>0.1895762236054549</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2385327290022284</v>
+        <v>0.2146794561020055</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2358963229136436</v>
+        <v>0.2123066906222792</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2884283764391411</v>
+        <v>0.2595855387952269</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2435974536978938</v>
+        <v>0.2192377083281045</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2826972825252635</v>
+        <v>0.2544275542727372</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3386982732215877</v>
+        <v>0.304828445899429</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3489452755882536</v>
+        <v>0.3140507480294282</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3929392305735553</v>
+        <v>0.3536453075161997</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3414544579379981</v>
+        <v>0.3073090121441982</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4187052128004057</v>
+        <v>0.3768346915203651</v>
       </c>
       <c r="X18" t="n">
-        <v>0.4485043141017667</v>
+        <v>0.40365388269159</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4456179097413224</v>
+        <v>0.4010561187671901</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5225356225761006</v>
+        <v>0.4702820603184905</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.459097999578004</v>
+        <v>0.4131881996202036</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.540564779325531</v>
+        <v>0.4865083013929779</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.6217954337073762</v>
+        <v>0.5596158903366386</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.6770704205193929</v>
+        <v>0.6093633784674536</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.8411081667612271</v>
+        <v>0.7569973500851044</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.6696568989508842</v>
+        <v>0.6026912090557959</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.8438403250205798</v>
+        <v>0.7594562925185219</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.04582522683582</v>
+        <v>0.9412427041522382</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.17615800616166</v>
+        <v>1.058542205545494</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.675723493707863</v>
+        <v>1.508151144337077</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.177609037347216</v>
+        <v>1.059848133612494</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.77395948709784</v>
+        <v>1.596563538388056</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.357682265865324</v>
+        <v>2.121914039278791</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.943626126576802</v>
+        <v>2.649263513919122</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.067813875236286</v>
+        <v>3.661032487712657</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.781944685991506</v>
+        <v>2.503750217392356</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.209579684316298</v>
+        <v>4.688621715884667</v>
       </c>
       <c r="AR18" t="n">
-        <v>6.758800105297457</v>
+        <v>6.082920094767711</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Servicios sociales y de salud privados</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2432718025489146</v>
+        <v>0.2189446222940232</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3173812785154159</v>
+        <v>0.2856431506638744</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2809716790639908</v>
+        <v>0.2528745111575917</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2695837747717343</v>
+        <v>0.2426253972945608</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2773657539269852</v>
+        <v>0.2496291785342867</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3259253804430849</v>
+        <v>0.2933328423987764</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3980028211184956</v>
+        <v>0.3582025390066459</v>
       </c>
       <c r="J19" t="n">
-        <v>0.357988414545739</v>
+        <v>0.3221895730911651</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3529765932301756</v>
+        <v>0.317678933907158</v>
       </c>
       <c r="L19" t="n">
-        <v>0.358403213582682</v>
+        <v>0.3225628922244137</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4538511100537173</v>
+        <v>0.4084659990483456</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5361829037593713</v>
+        <v>0.4825646133834341</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4786178016829264</v>
+        <v>0.4307560215146338</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4499351932803918</v>
+        <v>0.4049416739523526</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4786658287381617</v>
+        <v>0.4307992458643455</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5706451467858207</v>
+        <v>0.5135806321072386</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7922582189726176</v>
+        <v>0.7130323970753559</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6375472927630278</v>
+        <v>0.573792563486725</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6179452601858956</v>
+        <v>0.5561507341673059</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6496241337386576</v>
+        <v>0.5846617203647918</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8234396948933419</v>
+        <v>0.7410957254040077</v>
       </c>
       <c r="X19" t="n">
-        <v>1.063597607230849</v>
+        <v>0.9572378465077639</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8982561589299797</v>
+        <v>0.8084305430369816</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.846903834382546</v>
+        <v>0.7622134509442915</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.8917853455801454</v>
+        <v>0.8026068110221309</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.079957807371495</v>
+        <v>0.9719620266343455</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.35938207696201</v>
+        <v>1.223443869265809</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.237381002731213</v>
+        <v>1.113642902458091</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.342821228109924</v>
+        <v>1.208539105298931</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.257892025777498</v>
+        <v>1.132102823199749</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.756966608907344</v>
+        <v>1.581269948016609</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.116131009427657</v>
+        <v>1.904517908484891</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.046751713912613</v>
+        <v>1.842076542521352</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.769199495840417</v>
+        <v>2.492279546256376</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.16405722927371</v>
+        <v>1.947651506346339</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.329553339537932</v>
+        <v>2.996598005584139</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.829433255177612</v>
+        <v>4.346489929659852</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.732026700932569</v>
+        <v>4.258824030839312</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.470573763660982</v>
+        <v>5.823516387294885</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.844102198645423</v>
+        <v>4.35969197878088</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9.980826380467951</v>
+        <v>8.982743742421155</v>
       </c>
       <c r="AR19" t="n">
-        <v>15.426851282832</v>
+        <v>13.8841661545488</v>
       </c>
     </row>
     <row r="20">
@@ -20578,8 +21428,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -20587,135 +21439,137 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.0282401937315202</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.03012673336707694</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.03160974635849922</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.03411984649225952</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.03108318008967581</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.03578815489989629</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03839505785885206</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.03869797736559055</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.04376216461113414</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.03918014137934034</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.04481338647526822</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.04858952140801609</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.04667058844059163</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0.05891758743090603</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.04982293336449628</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.06112560233013731</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.06976177391107274</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.06984022078095509</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.08146304531319681</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.07073995816968781</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.08873700932077777</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.09555136550472698</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.08647582488082328</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.1022237367958061</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.09325974646450763</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.1080330389444153</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.1235759769923486</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.1299741931475369</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.1656977185505784</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.1320261145331529</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.1726518789440894</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.2128838121557939</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>0.2315405133187158</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>0.330689630131586</v>
       </c>
       <c r="AK15" t="n">
-        <v>-4.440892098500626e-16</v>
+        <v>0.2361094436226137</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.3589460402690334</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>0.4851105926922212</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>0.5767680216499231</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.8049540266399617</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.5571859746589709</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.039612233819927</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1.39521350166495</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -20723,130 +21577,130 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01519984036570265</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.01580989511518036</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.01702582464965879</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.0195998281691199</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.01696564951254734</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01998129370239504</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.02163892429871433</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.02193609492405699</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.02391381763033323</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.02196310447141533</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.03141263438661895</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.03548560808098622</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.03216414141985452</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.0377672623850302</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.0343390883158709</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.04250017081989932</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.05354947084665784</v>
       </c>
       <c r="T16" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.04628631569801944</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.05169993737303641</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.04864253365038695</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.06467582561328633</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.08654506859911548</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.0714920445997218</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.07402757173695995</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.07368770776748534</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.08164793637201584</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.09643833175686178</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.09174348917944675</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.1083748144277631</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.09512309988906142</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.1216853115077066</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>0.1570652846630798</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>0.1493933641359755</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>0.2191026163024479</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>0.1625310531619735</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.2534830473385874</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>0.3511480539342169</v>
       </c>
       <c r="AN16" t="n">
-        <v>-8.881784197001252e-16</v>
+        <v>0.3732504570525439</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0.5348462725885526</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.3836312846456562</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>0.7635030840128678</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>1.206822077714824</v>
       </c>
     </row>
     <row r="17">
@@ -20988,8 +21842,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -20997,135 +21853,137 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01357463216901254</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.01474407395898855</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.01546651744395355</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.01701832851273227</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.01522115171963057</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.01667337758093274</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.01854413393617219</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.01968065877256697</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.02198903410073383</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.01921539826586136</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.02106402484505057</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.02385327290022285</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.02358963229136438</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.02884283764391415</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.02435974536978938</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.02826972825252638</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.03386982732215876</v>
       </c>
       <c r="T18" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0.03489452755882544</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03929392305735557</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.03414544579379986</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.04187052128004054</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.04485043141017669</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.04456179097413226</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.05225356225761013</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.04590979995780037</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>0.05405647793255314</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.06217954337073761</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.06770704205193934</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.08411081667612275</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.06696568989508833</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.08438403250205795</v>
       </c>
       <c r="AH18" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>0.1045825226835819</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.1176158006161658</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.1675723493707861</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>0.1177609037347218</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.177395948709784</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.2357682265865324</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>0.2943626126576806</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>0.4067813875236292</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>0.2781944685991506</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>0.5209579684316301</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>0.6758800105297462</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -21133,130 +21991,130 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.02432718025489147</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.03173812785154156</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.0280971679063991</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.02695837747717345</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.02773657539269853</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.03259253804430856</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.03980028211184961</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0357988414545739</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.03529765932301754</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.03584032135826826</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.04538511100537174</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.05361829037593713</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.04786178016829268</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.04499351932803919</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.04786658287381618</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.05706451467858209</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.07922582189726168</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.06375472927630277</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0617945260185897</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.06496241337386577</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.0823439694893342</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1063597607230847</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.08982561589299809</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>0.08469038343825452</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.0891785345580145</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.1079957807371495</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.135938207696201</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>0.1237381002731213</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.1342821228109925</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.1257892025777496</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.1756966608907347</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>0.2116131009427655</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>0.2046751713912613</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.2769199495840415</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0.2164057229273715</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.3329553339537927</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.4829433255177618</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>0.473202670093257</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>0.6470573763660976</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0.4844102198645439</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.998082638046796</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>1.542685128283201</v>
       </c>
     </row>
     <row r="20">
@@ -23571,8 +24429,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -23580,135 +24440,137 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>31039.71464827322</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>34649.40140663067</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>37784.7106893111</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>40397.94928298254</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>35967.94400679941</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>40997.5385204735</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44294.53858850617</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>47016.8953071884</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>51357.3228386987</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>45916.57381371678</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>50438.49954081884</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>56280.35542057413</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>56430.7530779935</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.327995670913521e-10</v>
+        <v>70474.39956969811</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>58406.00190227125</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>70037.54717238488</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>80774.18553229883</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>84872.04888730022</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>100599.849944154</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>84070.9078840343</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>101424.4254882745</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>106061.0827079081</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>107088.1289991838</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>125745.8740534474</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>110079.8778122034</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>132250.912501911</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>151706.7476514454</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>164121.1033743055</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>208336.8861549497</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>164103.9124206529</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>222367.8155590738</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>270427.9837470544</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>303631.3215513885</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>409867.1266246283</v>
       </c>
       <c r="AK15" t="n">
-        <v>-5.672181626788948e-10</v>
+        <v>301573.5618705354</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>473383.2165156605</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>621818.8014616655</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>774931.0715485746</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1064049.153749843</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>733545.5608189352</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1377712.918848298</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1814853.459500262</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -23716,130 +24578,130 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7143.917991629897</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8364.421670092563</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9325.897975110072</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10479.57767297131</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8828.453827450974</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>9929.579801293996</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>11220.40201330262</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12767.12160243794</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14326.6816816618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>12060.94627467408</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>15485.05374513362</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>19170.40188568563</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>18423.85691218465</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>22794.21157072106</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>18968.38102843122</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21685.32773426263</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>28323.7707069084</v>
       </c>
       <c r="T16" t="n">
-        <v>6.650285468428153e-11</v>
+        <v>27725.70968590249</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>32974.99092353018</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>27677.44976265091</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>31983.63028061369</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>35766.5205259098</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>34047.13571659386</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>41093.80590012733</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>35722.77310581115</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>41044.41293739854</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>53342.82658972829</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>53468.62244332878</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>65557.27657874268</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>53353.28463729972</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>66424.40124191389</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>90433.02956106517</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>95797.57220324251</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>131171.1418223086</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>95956.5362071327</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>139039.8343295982</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>202038.5186873318</v>
       </c>
       <c r="AN16" t="n">
-        <v>-5.669919242967556e-10</v>
+        <v>238274.1915304785</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.680087820413886e-10</v>
+        <v>342045.4416973687</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>230349.4965611945</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>420261.8897270446</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>680575.3996000853</v>
       </c>
     </row>
     <row r="17">
@@ -23981,8 +24843,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -23990,135 +24854,137 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10499.83110123407</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>11803.99261853887</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12623.97738017067</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>13780.35645844687</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>12177.03938959762</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>13624.00312768455</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15081.33842767736</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>16211.68132820132</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>17756.68222052049</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15668.42627602092</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>16885.73777082121</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>19237.29319485202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>19665.4401134751</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>23756.03831715425</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>19886.12734907562</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23351.66088442459</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>27639.21072900232</v>
       </c>
       <c r="T18" t="n">
-        <v>4.73786434222812e-11</v>
+        <v>29782.40122801888</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>33879.84753505424</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>28663.28009412502</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>33828.6884489995</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>37105.27588313078</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>37281.4772761807</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>43389.8919269252</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>37901.333383809</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>45604.5293344238</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>53956.73831600106</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>58940.87448894485</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>70637.10647335864</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>57284.81215318199</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>73712.31571493874</v>
       </c>
       <c r="AH18" t="n">
-        <v>-1.947472491830224e-10</v>
+        <v>91725.52790519348</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>105017.2710161476</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>137403.5510865849</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>101964.6664307165</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>158131.430354442</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>207952.6027350527</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>266269.5907824397</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>356358.807817423</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>247178.1079223391</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>466307.1643357779</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>600904.8750759698</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -24126,130 +24992,130 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>25498.12161079917</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>32312.52922950611</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>32404.40682647074</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31744.04383306141</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>30489.77537495936</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>36218.9284088355</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>43105.13506582088</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42400.76729524171</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>41011.38132017379</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>40684.05302251801</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>47855.78611893301</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>56604.8564261084</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55150.45736152992</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>54028.42914223686</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>53409.88226220205</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>64122.29930118272</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>79296.07393651827</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>78151.37999986894</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>76484.06251231991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>74513.45393747244</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>88860.30074283843</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>72493.70301255179</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>89846.01963526374</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>94015.82165915956</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>86303.96126245335</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>114749.7459425191</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>153632.429774328</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>157920.8674514296</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>158962.7409241206</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>146316.446023099</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>197262.4874617692</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>258931.2790108186</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>279212.9529123678</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>309220.34334729</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.359234504076042e-10</v>
+        <v>261156.7656830619</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>394480.3112805531</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.084769612712434e-09</v>
+        <v>566792.4075669686</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>636465.131918767</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>780688.7062569929</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.090226348538056e-09</v>
+        <v>594606.6392558223</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1238534.100164284</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>1872618.46731859</v>
       </c>
     </row>
     <row r="20">
@@ -26564,8 +27430,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -26573,135 +27441,137 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.09999999999999988</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.09999999999999988</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.884366066290715e-16</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.1000000000000003</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AK15" t="n">
-        <v>-1.880861701406035e-16</v>
+        <v>0.09999999999999976</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -26709,130 +27579,130 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="T16" t="n">
-        <v>2.39859882533849e-16</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.09999999999999988</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.1000000000000004</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="AN16" t="n">
-        <v>-2.379577580999697e-16</v>
+        <v>0.09999999999999984</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.660623744092885e-16</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -26974,8 +27844,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -26983,135 +27855,137 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.09999999999999984</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="T18" t="n">
-        <v>1.590826846349384e-16</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="AH18" t="n">
-        <v>-2.123152121667927e-16</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NNN</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -27119,130 +27993,130 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.09999999999999983</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.09999999999999994</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.052113982212502e-16</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.09999999999999985</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.678189024552366e-16</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.83352535367336e-16</v>
+        <v>0.1000000000000003</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="20">
